--- a/data/trans_dic/P34B01_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5275215712471784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5579074768180231</v>
+        <v>0.557907476818023</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.4847647617747234</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5553542434367286</v>
+        <v>0.5566210750376005</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4909770404169612</v>
+        <v>0.4908429878829291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5176555378713984</v>
+        <v>0.5212922091905242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4537307268377407</v>
+        <v>0.4560608100272363</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4492950309616752</v>
+        <v>0.4504739729795727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4273322310612716</v>
+        <v>0.4278853037253087</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5073942400193843</v>
+        <v>0.5067852622050476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4784514713068497</v>
+        <v>0.4793241739007363</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4736277771161507</v>
+        <v>0.4747874267293096</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6181094154133028</v>
+        <v>0.6214183166082784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5618474492474169</v>
+        <v>0.5614808416855815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.598003933533276</v>
+        <v>0.5963544528557508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5111548053592649</v>
+        <v>0.5124074239460795</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5190187050344397</v>
+        <v>0.5165988514698477</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4821388276669704</v>
+        <v>0.4830318179261663</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5501191171470718</v>
+        <v>0.5507302919471042</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5284319089277693</v>
+        <v>0.5253037696296563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5182628743388668</v>
+        <v>0.5209722540461098</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.542409444257142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6631626098627476</v>
+        <v>0.6631626098627477</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.4936979558959732</v>
@@ -764,7 +764,7 @@
         <v>0.539824962033349</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6751642112104489</v>
+        <v>0.6751642112104491</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.4406458801507898</v>
@@ -773,7 +773,7 @@
         <v>0.5411452070198778</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6690868848477822</v>
+        <v>0.6690868848477821</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3703085693186168</v>
+        <v>0.3713884315870798</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5228144670562044</v>
+        <v>0.5169174183953668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6385353807445563</v>
+        <v>0.6405074387443829</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4688324253201628</v>
+        <v>0.4692033768697655</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5178558174838204</v>
+        <v>0.5184472092480809</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6563831952705694</v>
+        <v>0.6567006513191306</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4254671610361918</v>
+        <v>0.4237572803066791</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.524779479341861</v>
+        <v>0.5231053486089893</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6539203090799429</v>
+        <v>0.6537653607483929</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4153976548256234</v>
+        <v>0.4161367030308045</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5655540118998434</v>
+        <v>0.5654514531111218</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6854435284422361</v>
+        <v>0.6860398964696702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5194563551967953</v>
+        <v>0.5191713736342793</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5635358378490638</v>
+        <v>0.5628035942391927</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6925185210603312</v>
+        <v>0.6938253812778654</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4575564432288775</v>
+        <v>0.4563416374207052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5562821085913952</v>
+        <v>0.5559459077116113</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6839684690486993</v>
+        <v>0.6843193434205264</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.5552815347655913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7086113647975562</v>
+        <v>0.7086113647975559</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5213064711995351</v>
@@ -873,7 +873,7 @@
         <v>0.5998088314695331</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.662602776266809</v>
+        <v>0.6626027762668089</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.4438327708946017</v>
@@ -882,7 +882,7 @@
         <v>0.5775909716532488</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6852929562893803</v>
+        <v>0.6852929562893801</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3244939527156668</v>
+        <v>0.3245389314005821</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5111009303599793</v>
+        <v>0.5090556964089297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6722055853062251</v>
+        <v>0.6723808533507296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.47431696455027</v>
+        <v>0.4737088892242113</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5569155995618397</v>
+        <v>0.55893921313916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6308247410839366</v>
+        <v>0.6326966159468483</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4107107725460731</v>
+        <v>0.4112623403341946</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5481009538510935</v>
+        <v>0.5466180994965699</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6600073480643854</v>
+        <v>0.6625659326441575</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4215127194016667</v>
+        <v>0.4181089169093798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5995488575657769</v>
+        <v>0.6024047189138872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7448626579121645</v>
+        <v>0.7462767774964281</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5698341667938708</v>
+        <v>0.5741404809176797</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6395673403615489</v>
+        <v>0.6419564830450359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6915153511287125</v>
+        <v>0.6951063056517052</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4759727376115737</v>
+        <v>0.4790287174772968</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.609149218553829</v>
+        <v>0.6066112890704749</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7087455524409119</v>
+        <v>0.7086512509247632</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.5335311278944133</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6239898576103131</v>
+        <v>0.623989857610313</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.4700843155230779</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4275207733636899</v>
+        <v>0.4276764509841486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5251711859552984</v>
+        <v>0.5238039689375115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6369440726246079</v>
+        <v>0.6363051057905418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4773380490806373</v>
+        <v>0.4771508925586445</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5165239482567574</v>
+        <v>0.5154716333157897</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6092070525200745</v>
+        <v>0.6089878546491748</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4587904868822962</v>
+        <v>0.4570436443814614</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5252709801148155</v>
+        <v>0.5251953617662104</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6275182922866033</v>
+        <v>0.6267635880051502</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4621384961946719</v>
+        <v>0.4639868489980641</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5602836999860973</v>
+        <v>0.5602196661670078</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6724910412940339</v>
+        <v>0.6718165649302763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5120863214944522</v>
+        <v>0.5130722812521757</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5515230755816557</v>
+        <v>0.5494364161023475</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6382842469857739</v>
+        <v>0.6376412280499906</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4822551104192657</v>
+        <v>0.4825891642469735</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5500582248850445</v>
+        <v>0.5499105992254028</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6502202018259191</v>
+        <v>0.6503707812829683</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>540124</v>
+        <v>541356</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>370367</v>
+        <v>370266</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>298960</v>
+        <v>301060</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>607000</v>
+        <v>610117</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>446896</v>
+        <v>448068</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>349271</v>
+        <v>349723</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1172269</v>
+        <v>1170862</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>836815</v>
+        <v>838341</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>660642</v>
+        <v>662260</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>601158</v>
+        <v>604376</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>423828</v>
+        <v>423551</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>345363</v>
+        <v>344410</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>683821</v>
+        <v>685497</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>516247</v>
+        <v>513840</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>394066</v>
+        <v>394796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1270980</v>
+        <v>1272392</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>924231</v>
+        <v>918760</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>722902</v>
+        <v>726681</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>727270</v>
+        <v>729391</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1085564</v>
+        <v>1073320</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1415159</v>
+        <v>1419529</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>823227</v>
+        <v>823878</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1029653</v>
+        <v>1030829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1418078</v>
+        <v>1418764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1582681</v>
+        <v>1576320</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2133063</v>
+        <v>2126258</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2862013</v>
+        <v>2861335</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>815823</v>
+        <v>817275</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1174308</v>
+        <v>1174095</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1519119</v>
+        <v>1520441</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>912118</v>
+        <v>911618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1120478</v>
+        <v>1119022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1496147</v>
+        <v>1498970</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1702049</v>
+        <v>1697530</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2261112</v>
+        <v>2259745</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2993525</v>
+        <v>2995060</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>156140</v>
+        <v>156162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>279514</v>
+        <v>278395</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>478333</v>
+        <v>478457</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>217536</v>
+        <v>217258</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>305825</v>
+        <v>306936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>461315</v>
+        <v>462684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>385991</v>
+        <v>386510</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>600733</v>
+        <v>599108</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>952309</v>
+        <v>956000</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>202824</v>
+        <v>201186</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>327885</v>
+        <v>329447</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>530035</v>
+        <v>531041</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>261344</v>
+        <v>263319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>351212</v>
+        <v>352524</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>505698</v>
+        <v>508324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>447325</v>
+        <v>450197</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>667644</v>
+        <v>664862</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1022632</v>
+        <v>1022496</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1461144</v>
+        <v>1461676</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1773828</v>
+        <v>1769210</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2232725</v>
+        <v>2230485</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1695666</v>
+        <v>1695001</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1824414</v>
+        <v>1820697</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2259586</v>
+        <v>2258772</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3197793</v>
+        <v>3185617</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3629474</v>
+        <v>3628952</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4527187</v>
+        <v>4521743</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1579457</v>
+        <v>1585774</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1892424</v>
+        <v>1892208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2357330</v>
+        <v>2354966</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1819103</v>
+        <v>1822606</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1948035</v>
+        <v>1940664</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2367435</v>
+        <v>2365050</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>3361342</v>
+        <v>3363671</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3800747</v>
+        <v>3799727</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4690969</v>
+        <v>4692055</v>
       </c>
     </row>
     <row r="20">
